--- a/Session02_LabA_Data_.xlsx
+++ b/Session02_LabA_Data_.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc18423902c4bc91/01_NDSU/WORK/NYU SPS IMC/INTG1-GC 1025 _ Database Management ^0 Modeling/Session02/Session02_Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{3AB40C90-95D2-EE41-A69F-5673F6C3308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E829C40B-C608-6042-9FF1-1659D9385956}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="8_{3AB40C90-95D2-EE41-A69F-5673F6C3308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72CA2453-4E35-4F43-AE5F-A89B4BEB2599}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="19940" activeTab="3" xr2:uid="{7F855AD8-FB2D-0546-8CA9-1562EC83903A}"/>
+    <workbookView xWindow="19400" yWindow="0" windowWidth="19000" windowHeight="24000" activeTab="3" xr2:uid="{7F855AD8-FB2D-0546-8CA9-1562EC83903A}"/>
   </bookViews>
   <sheets>
     <sheet name="Histogram" sheetId="3" r:id="rId1"/>
     <sheet name="Chapter3Bakery2" sheetId="1" r:id="rId2"/>
-    <sheet name="ChapStickprice" sheetId="2" r:id="rId3"/>
-    <sheet name="Solutions" sheetId="4" r:id="rId4"/>
+    <sheet name="Solutions" sheetId="4" r:id="rId3"/>
+    <sheet name="Group Work" sheetId="6" r:id="rId4"/>
+    <sheet name="ChapStickprice" sheetId="2" r:id="rId5"/>
+    <sheet name="Linearfit" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -40,7 +42,7 @@
     <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
     <definedName name="_AtRisk_SimSetting_StatisticFunctionUpdating" hidden="1">1</definedName>
-    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" localSheetId="4" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
@@ -65,7 +67,7 @@
     <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
     <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
     <definedName name="RiskMultipleCPUSupportEnabled" hidden="1">TRUE</definedName>
-    <definedName name="RiskNumIterations" localSheetId="2" hidden="1">1000</definedName>
+    <definedName name="RiskNumIterations" localSheetId="4" hidden="1">1000</definedName>
     <definedName name="RiskNumIterations" hidden="1">100</definedName>
     <definedName name="RiskNumSimulations" hidden="1">1</definedName>
     <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
@@ -74,7 +76,7 @@
     <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
     <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
     <definedName name="RiskSamplingType" hidden="1">3</definedName>
-    <definedName name="RiskStandardRecalc" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="RiskStandardRecalc" localSheetId="4" hidden="1">1</definedName>
     <definedName name="RiskStandardRecalc" hidden="1">2</definedName>
     <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
     <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
@@ -133,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="50">
   <si>
     <t>none</t>
   </si>
@@ -239,6 +241,51 @@
   <si>
     <t>Average:</t>
   </si>
+  <si>
+    <t>Demand = 1500-10*price</t>
+  </si>
+  <si>
+    <t>=FREQUENCY(Chapter3Bakery2[Cakes],Solutions!A15:A22)</t>
+  </si>
+  <si>
+    <t>=ROUND(STDEV.S(Chapter3Bakery2[Cakes]),2)</t>
+  </si>
+  <si>
+    <t>=ROUND(VAR.S(Chapter3Bakery2[Cakes]),2)</t>
+  </si>
+  <si>
+    <t>Hotel Location</t>
+  </si>
+  <si>
+    <t>Cleanliness Rating</t>
+  </si>
+  <si>
+    <t>Staff Behavior Rating</t>
+  </si>
+  <si>
+    <t>Food Quality Rating</t>
+  </si>
+  <si>
+    <t>Overall Experience Rating</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +329,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -297,12 +353,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="41">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,102 +721,341 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency 2" xfId="2" xr:uid="{280E33D6-0711-484E-87A4-B4D196D61B3F}"/>
@@ -754,10 +1064,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -959,6 +1269,344 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cake Frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solutions!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>&gt;170</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solutions!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8F9-374E-B126-ED5152F80FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1861742832"/>
+        <c:axId val="1861558288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1861742832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861558288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1861558288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861742832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1467,7 +2115,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1484,152 +2132,171 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Daily Cake Sales</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear demand curve</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28232217674637633"/>
+          <c:y val="4.6153846153846156E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14675185248209399"/>
+          <c:y val="0.28470935939101794"/>
+          <c:w val="0.54959082963352568"/>
+          <c:h val="0.50272209741095375"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:tx>
             <c:strRef>
-              <c:f>Solutions!$A$15:$A$23</c:f>
+              <c:f>Linearfit!$E$4</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>&gt;170</c:v>
+                  <c:v>demand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000080"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.31887251393041111"/>
+                  <c:y val="-0.43791327676838177"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                      <a:ea typeface="Arial"/>
+                      <a:cs typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>Solutions!$B$15:$B$23</c:f>
+              <c:f>Linearfit!$D$5:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Linearfit!$E$5:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BFB-C14F-AE7A-2E56308D8C58}"/>
+              <c16:uniqueId val="{00000001-68CC-104B-BE52-290E8D94840D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1641,64 +2308,90 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="-27"/>
-        <c:axId val="824969535"/>
-        <c:axId val="824708079"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="824969535"/>
+        <c:axId val="73645455"/>
+        <c:axId val="1"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73645455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37994778357190839"/>
+              <c:y val="0.80513197388787938"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="3175">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:round/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824708079"/>
+        <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="824708079"/>
+        <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,93 +2399,175 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="3175">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:round/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Demand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.221635883905013E-2"/>
+              <c:y val="0.338463153644256"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="824969535"/>
+        <c:crossAx val="73645455"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75480182872380486"/>
+          <c:y val="0.40269767790535271"/>
+          <c:w val="0.21656761330472038"/>
+          <c:h val="0.38256279401008508"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="845" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="3175">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:srgbClr val="000000"/>
       </a:solidFill>
-      <a:round/>
+      <a:prstDash val="solid"/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2388,6 +3163,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140606</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>725714</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F281610-077C-F09A-ED0E-1EAEFC70FFC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -2427,31 +3243,33 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4991BB-4C80-8CE6-3AD1-388249043776}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF62E4FB-CED9-DC40-A376-F66288121388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -32571,7 +33389,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73364401-F827-4E4B-A733-02C4EEEE5CA0}" name="Table1" displayName="Table1" ref="D7:E1102" totalsRowShown="0">
   <autoFilter ref="D7:E1102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Cakes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -32582,7 +33400,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA46925B-2E4B-C941-96AB-DF4C2EE23747}" name="Chapter3Bakery2" displayName="Chapter3Bakery2" ref="A1:G1096" totalsRowShown="0">
   <autoFilter ref="A1:G1096" xr:uid="{7F452126-E6F2-C145-B5CB-B57C4C7B7F50}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6829782A-22C3-5E43-867D-CA042799B2B2}" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6829782A-22C3-5E43-867D-CA042799B2B2}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{95FB30C0-D7EB-1842-A843-584593E7C3BF}" name="Cakes"/>
     <tableColumn id="3" xr3:uid="{FCA31AE0-1799-9349-83F3-A07FDC1C780F}" name="Pies"/>
     <tableColumn id="4" xr3:uid="{4057FD4B-A7D5-FF48-81C2-945015D99288}" name="Cookies"/>
@@ -32893,8 +33711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72360AB-034C-FA42-A54E-AA3AB157024A}">
   <dimension ref="D5:S1102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32904,26 +33722,26 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f>MIN(Table1[Cakes])</f>
         <v>32</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <f>SKEW(Table1[Cakes])</f>
         <v>0.42716214582712642</v>
       </c>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f>MAX(Table1[Cakes])</f>
         <v>165</v>
       </c>
@@ -32951,10 +33769,10 @@
       <c r="E9">
         <v>91</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>30</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <f t="array" ref="J9:J17">FREQUENCY(E8:E1102,I9:I16)</f>
         <v>0</v>
       </c>
@@ -32966,10 +33784,10 @@
       <c r="E10">
         <v>47</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>50</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>27</v>
       </c>
     </row>
@@ -32980,10 +33798,10 @@
       <c r="E11">
         <v>89</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>70</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>207</v>
       </c>
     </row>
@@ -32994,10 +33812,10 @@
       <c r="E12">
         <v>112</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <v>90</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>454</v>
       </c>
     </row>
@@ -33008,10 +33826,10 @@
       <c r="E13">
         <v>89</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <v>110</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>270</v>
       </c>
     </row>
@@ -33022,10 +33840,10 @@
       <c r="E14">
         <v>70</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>130</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>109</v>
       </c>
     </row>
@@ -33036,10 +33854,10 @@
       <c r="E15">
         <v>70</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="15">
         <v>150</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>25</v>
       </c>
     </row>
@@ -33050,10 +33868,10 @@
       <c r="E16">
         <v>59</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <v>170</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <v>3</v>
       </c>
     </row>
@@ -33064,10 +33882,10 @@
       <c r="E17">
         <v>71</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <v>0</v>
       </c>
     </row>
@@ -33150,22 +33968,22 @@
       <c r="E27">
         <v>97</v>
       </c>
-      <c r="N27" s="16" t="s">
+      <c r="N27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="16" t="s">
+      <c r="O27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P27" s="16" t="s">
+      <c r="P27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="16" t="s">
+      <c r="Q27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R27" s="15" t="s">
+      <c r="R27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="15" t="s">
+      <c r="S27" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -33176,10 +33994,10 @@
       <c r="E28">
         <v>79</v>
       </c>
-      <c r="R28" s="16" t="s">
+      <c r="R28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S28" s="16" t="str">
+      <c r="S28" s="15" t="str">
         <f t="array" ref="S28:S31">TRANSPOSE(N27:Q270)</f>
         <v>Scarlett</v>
       </c>
@@ -33191,10 +34009,10 @@
       <c r="E29">
         <v>67</v>
       </c>
-      <c r="R29" s="16" t="s">
+      <c r="R29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="16" t="str">
+      <c r="S29" s="15" t="str">
         <v>Lindsay</v>
       </c>
     </row>
@@ -33205,10 +34023,10 @@
       <c r="E30">
         <v>81</v>
       </c>
-      <c r="R30" s="16" t="s">
+      <c r="R30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S30" s="16" t="str">
+      <c r="S30" s="15" t="str">
         <v>Britney</v>
       </c>
     </row>
@@ -33219,10 +34037,10 @@
       <c r="E31">
         <v>71</v>
       </c>
-      <c r="R31" s="16" t="s">
+      <c r="R31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S31" s="16" t="str">
+      <c r="S31" s="15" t="str">
         <v>Paris</v>
       </c>
     </row>
@@ -41807,8 +42625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282F204D-1636-8445-A723-EB6F20A4CC7C}">
   <dimension ref="A1:G1096"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -67034,10 +67852,688 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185F0D46-4AF5-2343-BB78-CA1EB7C9DDFB}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="str" cm="1">
+        <f t="array" ref="A2:D2">Histogram!N27:Q27</f>
+        <v>Scarlett</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <v>Lindsay</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <v>Britney</v>
+      </c>
+      <c r="D2" s="11" t="str">
+        <v>Paris</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="21" t="str" cm="1">
+        <f t="array" ref="B4:B7">TRANSPOSE(Histogram!N27:Q27)</f>
+        <v>Scarlett</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="21" t="str">
+        <v>Lindsay</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="21" t="str">
+        <v>Britney</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="22" t="str">
+        <v>Paris</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="25">
+        <f>MIN(Chapter3Bakery2[Cakes])</f>
+        <v>32</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="36">
+        <f>ROUND(SKEW(Chapter3Bakery2[Cakes]),2)</f>
+        <v>0.43</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="17">
+        <f>MAX(Chapter3Bakery2[Cakes])</f>
+        <v>165</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="34">
+        <f>ROUND(AVERAGE(Chapter3Bakery2[Cakes]),2)</f>
+        <v>86.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>30</v>
+      </c>
+      <c r="B15" s="31" cm="1">
+        <f t="array" ref="B15:B23">FREQUENCY(Chapter3Bakery2[Cakes],Solutions!A15:A22)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>50</v>
+      </c>
+      <c r="B16" s="13">
+        <v>27</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>70</v>
+      </c>
+      <c r="B17" s="13">
+        <v>207</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>90</v>
+      </c>
+      <c r="B18" s="13">
+        <v>454</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>110</v>
+      </c>
+      <c r="B19" s="13">
+        <v>270</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>130</v>
+      </c>
+      <c r="B20" s="13">
+        <v>109</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>150</v>
+      </c>
+      <c r="B21" s="13">
+        <v>25</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>170</v>
+      </c>
+      <c r="B22" s="13">
+        <v>3</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="32">
+        <v>0</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="36">
+        <f>ROUND(_xlfn.STDEV.S(Chapter3Bakery2[Cakes]),2)</f>
+        <v>20.28</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="39">
+        <f>ROUND(_xlfn.VAR.S(Chapter3Bakery2[Cakes]),2)</f>
+        <v>411.14</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="58"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05921AD9-511D-5E4E-8751-2B6F32656EE5}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="70">
+        <v>4</v>
+      </c>
+      <c r="D3" s="64">
+        <v>5</v>
+      </c>
+      <c r="E3" s="64">
+        <v>3</v>
+      </c>
+      <c r="F3" s="65">
+        <v>4</v>
+      </c>
+      <c r="G3" s="61">
+        <f>SUM(C3:F3)</f>
+        <v>16</v>
+      </c>
+      <c r="H3" s="77">
+        <f>ROUND(AVERAGE(C3:F3),2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="71">
+        <v>3</v>
+      </c>
+      <c r="D4" s="60">
+        <v>4</v>
+      </c>
+      <c r="E4" s="60">
+        <v>4</v>
+      </c>
+      <c r="F4" s="66">
+        <v>3</v>
+      </c>
+      <c r="G4" s="61">
+        <f t="shared" ref="G4:G7" si="0">SUM(C4:F4)</f>
+        <v>14</v>
+      </c>
+      <c r="H4" s="77">
+        <f t="shared" ref="H4:H7" si="1">ROUND(AVERAGE(C4:F4),2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="71">
+        <v>5</v>
+      </c>
+      <c r="D5" s="60">
+        <v>5</v>
+      </c>
+      <c r="E5" s="60">
+        <v>5</v>
+      </c>
+      <c r="F5" s="66">
+        <v>5</v>
+      </c>
+      <c r="G5" s="61">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H5" s="77">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="71">
+        <v>4</v>
+      </c>
+      <c r="D6" s="60">
+        <v>3</v>
+      </c>
+      <c r="E6" s="60">
+        <v>4</v>
+      </c>
+      <c r="F6" s="66">
+        <v>4</v>
+      </c>
+      <c r="G6" s="61">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H6" s="77">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="72">
+        <v>3</v>
+      </c>
+      <c r="D7" s="67">
+        <v>2</v>
+      </c>
+      <c r="E7" s="67">
+        <v>3</v>
+      </c>
+      <c r="F7" s="68">
+        <v>2</v>
+      </c>
+      <c r="G7" s="61">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H7" s="77">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="78">
+        <f>AVERAGE(C3:C7)</f>
+        <v>3.8</v>
+      </c>
+      <c r="D8" s="78">
+        <f t="shared" ref="D8:F8" si="2">AVERAGE(D3:D7)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E8" s="78">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="F8" s="78">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="73" t="str" cm="1">
+        <f t="array" ref="B11:G15">TRANSPOSE(B2:F7)</f>
+        <v>Hotel Location</v>
+      </c>
+      <c r="C11" s="85" t="str">
+        <v>New York</v>
+      </c>
+      <c r="D11" s="86" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="E11" s="86" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="F11" s="86" t="str">
+        <v>Miami</v>
+      </c>
+      <c r="G11" s="87" t="str">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="81" t="str">
+        <v>Cleanliness Rating</v>
+      </c>
+      <c r="C12" s="82">
+        <v>4</v>
+      </c>
+      <c r="D12" s="64">
+        <v>3</v>
+      </c>
+      <c r="E12" s="64">
+        <v>5</v>
+      </c>
+      <c r="F12" s="64">
+        <v>4</v>
+      </c>
+      <c r="G12" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="79" t="str">
+        <v>Staff Behavior Rating</v>
+      </c>
+      <c r="C13" s="83">
+        <v>5</v>
+      </c>
+      <c r="D13" s="60">
+        <v>4</v>
+      </c>
+      <c r="E13" s="60">
+        <v>5</v>
+      </c>
+      <c r="F13" s="60">
+        <v>3</v>
+      </c>
+      <c r="G13" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="79" t="str">
+        <v>Food Quality Rating</v>
+      </c>
+      <c r="C14" s="83">
+        <v>3</v>
+      </c>
+      <c r="D14" s="60">
+        <v>4</v>
+      </c>
+      <c r="E14" s="60">
+        <v>5</v>
+      </c>
+      <c r="F14" s="60">
+        <v>4</v>
+      </c>
+      <c r="G14" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="80" t="str">
+        <v>Overall Experience Rating</v>
+      </c>
+      <c r="C15" s="84">
+        <v>4</v>
+      </c>
+      <c r="D15" s="67">
+        <v>3</v>
+      </c>
+      <c r="E15" s="67">
+        <v>5</v>
+      </c>
+      <c r="F15" s="67">
+        <v>4</v>
+      </c>
+      <c r="G15" s="68">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A69295-E3F5-A54F-8A74-722384FBE78E}">
   <dimension ref="A2:F6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -67122,382 +68618,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185F0D46-4AF5-2343-BB78-CA1EB7C9DDFB}">
-  <dimension ref="A1:I31"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E205E3-1B14-E34A-B10D-4EB3DB3B649D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="40" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="str" cm="1">
-        <f t="array" ref="A2:D2">Histogram!N27:Q27</f>
-        <v>Scarlett</v>
-      </c>
-      <c r="B2" s="11" t="str">
-        <v>Lindsay</v>
-      </c>
-      <c r="C2" s="11" t="str">
-        <v>Britney</v>
-      </c>
-      <c r="D2" s="12" t="str">
-        <v>Paris</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="23" t="str" cm="1">
-        <f t="array" ref="B4:B7">TRANSPOSE(Histogram!N27:Q27)</f>
-        <v>Scarlett</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="23" t="str">
-        <v>Lindsay</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="23" t="str">
-        <v>Britney</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="24" t="str">
-        <v>Paris</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="27">
-        <f>MIN(Table1[Cakes])</f>
-        <v>32</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="47">
-        <f>ROUND(SKEW(Table1[Cakes]),2)</f>
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="19">
-        <f>MAX(Table1[Cakes])</f>
-        <v>165</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="37">
-        <f>ROUND(AVERAGE(Table1[Cakes]),2)</f>
-        <v>86.28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
-        <v>30</v>
-      </c>
-      <c r="B15" s="34" cm="1">
-        <f t="array" ref="B15:B23">FREQUENCY(Histogram!E8:E1102,A15:A22)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
-        <v>50</v>
-      </c>
-      <c r="B16" s="14">
-        <v>27</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
-        <v>70</v>
-      </c>
-      <c r="B17" s="14">
-        <v>207</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
-        <v>90</v>
-      </c>
-      <c r="B18" s="14">
-        <v>454</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
-        <v>110</v>
-      </c>
-      <c r="B19" s="14">
-        <v>270</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="42"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
-        <v>130</v>
-      </c>
-      <c r="B20" s="14">
-        <v>109</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="42"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
-        <v>150</v>
-      </c>
-      <c r="B21" s="14">
-        <v>25</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="42"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
-        <v>170</v>
-      </c>
-      <c r="B22" s="14">
-        <v>3</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="35">
-        <v>0</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="42"/>
-    </row>
-    <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="41"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="42"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="47">
-        <f>ROUND(STDEV(Table1[Cakes]), 2)</f>
-        <v>20.28</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="50">
-        <f>ROUND(_xlfn.VAR.S(Table1[Cakes]), 2)</f>
-        <v>411.14</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="42"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="41"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="42"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="41"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="42"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="41"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="42"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="41"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="42"/>
-    </row>
-    <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
+    <row r="1" spans="4:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="4:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="4:7" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="4:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D5" s="41">
+        <v>100</v>
+      </c>
+      <c r="E5" s="45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="42">
+        <v>101</v>
+      </c>
+      <c r="E6" s="46">
+        <v>490</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C14:I31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="87" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>